--- a/Algorithms/ModelPerformanceSummary.xlsx
+++ b/Algorithms/ModelPerformanceSummary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hxs10\Documents\GitHub\CSC2515Dota2DraftPredictionProject\Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\Dropbox (GaryWorkDropbox)\ML Dota\Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Dataset</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Logistic Regression with Synergy and Countering</t>
   </si>
   <si>
-    <t>SVD Dimension reduction on Benchmark</t>
-  </si>
-  <si>
-    <t>SVD quadratic kernel</t>
-  </si>
-  <si>
     <t>Fully connected NN</t>
   </si>
   <si>
@@ -102,6 +96,117 @@
   </si>
   <si>
     <t>Gaussian Discriminant Analysis</t>
+  </si>
+  <si>
+    <t>Train: 67.3%; Test: 65.88%</t>
+  </si>
+  <si>
+    <t>Train: 65.32%; Test: 60.97%</t>
+  </si>
+  <si>
+    <t>Train: 65.1%; Test: 64.13%</t>
+  </si>
+  <si>
+    <t>Benchmark: SVM quad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train: 62.51%; Test: 62.47% </t>
+  </si>
+  <si>
+    <t>Train: 62.66%; Test: 62.63%</t>
+  </si>
+  <si>
+    <t>Train: 62.51%; Test: 62.53%</t>
+  </si>
+  <si>
+    <t>Train: 62.54%; Test: 61.81%</t>
+  </si>
+  <si>
+    <t>Train: 53.54%; Test: 53.73%</t>
+  </si>
+  <si>
+    <t>Train: 53.96%; Test: 53.92%</t>
+  </si>
+  <si>
+    <t>Train: 62.21%; Test: 62.12</t>
+  </si>
+  <si>
+    <t>Train: 62.66%; Test: 62.13%</t>
+  </si>
+  <si>
+    <t>Train: 62.86%; Test: 61.82%</t>
+  </si>
+  <si>
+    <t>SVD Dimension reduction (PC 70) on Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Train: 59.82%; Test: 59.73%</t>
+  </si>
+  <si>
+    <t>SVD Dimension reduction (PC 70) on Logistic Regression</t>
+  </si>
+  <si>
+    <t>Train: 60.10%; Test: 60.02%</t>
+  </si>
+  <si>
+    <t>SVD Dimension reduction (PC 70) on SVM linear</t>
+  </si>
+  <si>
+    <t>Train: 60.06%; Test: 59.96%</t>
+  </si>
+  <si>
+    <t>SVD Dimension reduction (PC 70) on SVM rbf</t>
+  </si>
+  <si>
+    <t>Train: 60.23%; Test: 59.48%</t>
+  </si>
+  <si>
+    <t>LDA on raw input</t>
+  </si>
+  <si>
+    <t>QDA on raw input</t>
+  </si>
+  <si>
+    <t>LDA on PC100 input</t>
+  </si>
+  <si>
+    <t>QDA on PC100 input</t>
+  </si>
+  <si>
+    <t>Train: 62.69%; Test: 62.53%</t>
+  </si>
+  <si>
+    <t>Train: 48.7%; Test: 48.51%</t>
+  </si>
+  <si>
+    <t>60.97%; 60.97%</t>
+  </si>
+  <si>
+    <t>60.83%; 60.71%</t>
+  </si>
+  <si>
+    <t>60.72%; 60.54%</t>
+  </si>
+  <si>
+    <t>51.93%; 51.91%</t>
+  </si>
+  <si>
+    <t>59.30%; 59.18%</t>
+  </si>
+  <si>
+    <t>59.33%; 59.03%</t>
+  </si>
+  <si>
+    <t>64.30%; 64.39%</t>
+  </si>
+  <si>
+    <t>53.47%; 53.41%</t>
+  </si>
+  <si>
+    <t>62.13%; 62.24%</t>
+  </si>
+  <si>
+    <t>62.00%; 61.93%</t>
   </si>
 </sst>
 </file>
@@ -137,8 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,23 +527,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.796875" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -451,14 +562,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -466,78 +580,194 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms/ModelPerformanceSummary.xlsx
+++ b/Algorithms/ModelPerformanceSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Dataset</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>62.00%; 61.93%</t>
+  </si>
+  <si>
+    <t>61.58%; 61.55%</t>
+  </si>
+  <si>
+    <t>62.21%; 62.24%</t>
   </si>
 </sst>
 </file>
@@ -529,11 +535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +675,9 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -676,6 +685,9 @@
       </c>
       <c r="B12" t="s">
         <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
